--- a/data_bom_head.xlsx
+++ b/data_bom_head.xlsx
@@ -98,13 +98,13 @@
     <t xml:space="preserve">FHeadSelfZ0135</t>
   </si>
   <si>
-    <t xml:space="preserve">TCB100022</t>
+    <t xml:space="preserve">BOM004202</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">001</t>
+    <t xml:space="preserve">004</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -536,7 +536,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6512</v>
+        <v>6550</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -560,7 +560,7 @@
         <v>1072</v>
       </c>
       <c r="I2" t="n">
-        <v>41507</v>
+        <v>18285</v>
       </c>
       <c r="J2" t="n">
         <v>66</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1286</v>
+        <v>1311</v>
       </c>
       <c r="W2" t="s">
         <v>33</v>

--- a/data_bom_head.xlsx
+++ b/data_bom_head.xlsx
@@ -98,13 +98,13 @@
     <t xml:space="preserve">FHeadSelfZ0135</t>
   </si>
   <si>
-    <t xml:space="preserve">BOM004202</t>
+    <t xml:space="preserve">BOM000093</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">004</t>
+    <t xml:space="preserve">002</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -536,7 +536,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6550</v>
+        <v>1229</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -560,7 +560,7 @@
         <v>1072</v>
       </c>
       <c r="I2" t="n">
-        <v>18285</v>
+        <v>2508</v>
       </c>
       <c r="J2" t="n">
         <v>66</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1311</v>
+        <v>1105</v>
       </c>
       <c r="W2" t="s">
         <v>33</v>
